--- a/notebooks/arbitragem/resultados/retornos.xlsx
+++ b/notebooks/arbitragem/resultados/retornos.xlsx
@@ -1,111 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="21">
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>Ativo1</t>
-  </si>
-  <si>
-    <t>Ativo2</t>
-  </si>
-  <si>
-    <t>ativo1_mean</t>
-  </si>
-  <si>
-    <t>ativo2_mean</t>
-  </si>
-  <si>
-    <t>ativo1_std</t>
-  </si>
-  <si>
-    <t>ativo2_std</t>
-  </si>
-  <si>
-    <t>spread</t>
-  </si>
-  <si>
-    <t>rolling_mean</t>
-  </si>
-  <si>
-    <t>rolling_std</t>
-  </si>
-  <si>
-    <t>zscore</t>
-  </si>
-  <si>
-    <t>sinal</t>
-  </si>
-  <si>
-    <t>capital</t>
-  </si>
-  <si>
-    <t>retorno_trade</t>
-  </si>
-  <si>
-    <t>ativo1_desvio_preco</t>
-  </si>
-  <si>
-    <t>ativo1_std_preco</t>
-  </si>
-  <si>
-    <t>ativo2_desvio_preco</t>
-  </si>
-  <si>
-    <t>ativo2_std_preco</t>
-  </si>
-  <si>
-    <t>compra_1_vende_2</t>
-  </si>
-  <si>
-    <t>neutro</t>
-  </si>
-  <si>
-    <t>vende_1_compra_2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -120,36 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -437,2782 +424,2974 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ativo1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ativo2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ativo1_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ativo2_mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ativo1_std</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ativo2_std</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>spread</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>rolling_mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>rolling_std</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>zscore</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sinal</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>retorno_trade</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ativo1_desvio_preco</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ativo1_std_preco</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ativo2_desvio_preco</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ativo2_std_preco</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>45807</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>103985.48</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>676.6</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>108000.4145454546</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>670.7790909090909</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>2100.692101248375</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>13.5636871495515</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>103308.88</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>107329.6354545455</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>2104.019330426241</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>-1.91098788704138</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
         <v>10000</v>
       </c>
-      <c r="O2">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
         <v>-4014.934545454555</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>-1.91124370062067</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>5.82090909090914</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>0.4291538891105739</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>45808</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>104591.88</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>654.12</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>107795.1318181818</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>671.13</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>2322.93248235854</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>13.01873188908963</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>103937.76</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>107124.0018181818</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>2324.477770910357</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>-1.370734475526496</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>10000</v>
       </c>
-      <c r="O3">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
         <v>-3203.251818181816</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>-1.378968972412604</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>-17.00999999999999</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>-1.306578869963153</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>45809</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>105642.93</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>657.61</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>107431.3990909091</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>671.7827272727274</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>2317.725885429325</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>12.01868386380892</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>104985.32</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>106759.6163636364</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>2316.24991839082</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>-0.7660211230008533</v>
       </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>10000</v>
       </c>
-      <c r="O4">
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>-1788.469090909115</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>-0.7716482359508302</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>-14.17272727272734</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>-1.179224566793437</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>45810</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>105857.99</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>661.0700000000001</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>106900.6518181818</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>670.53</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>1868.339303616031</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>12.3797390925657</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>105196.92</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>106230.1218181818</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>1866.699995633043</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>-0.553491091551339</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>10000</v>
       </c>
-      <c r="O5">
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
         <v>-1042.661818181834</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>-0.5580687705727968</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>-9.459999999999923</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>-0.7641518071799153</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2">
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45811</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>105376.89</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>666.75</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>106724.16</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>668.8509090909091</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1916.029609071864</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>11.4020125017871</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>104710.14</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>106055.3090909091</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>1914.614942553497</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>-0.702579438304732</v>
       </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>10000</v>
       </c>
-      <c r="O6">
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
         <v>-1347.270000000004</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>-0.7031571921545772</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>-2.100909090909113</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>-0.1842577431466442</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45812</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>104696.86</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>661.38</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>106445.5190909091</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>669.3409090909091</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>1972.071665469889</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>10.89875814443595</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>104035.48</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>105776.1781818182</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>1969.17178905661</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>-0.8839747712677435</v>
       </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>10000</v>
       </c>
-      <c r="O7">
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
         <v>-1748.659090909103</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>-0.8867117364583433</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>-7.960909090909126</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>-0.7304418526778063</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2">
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>45813</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>101508.68</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>663.54</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>105764.1090909091</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>668.9418181818181</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>2271.755586697043</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>11.03511288404593</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>100845.14</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>105095.1672727273</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>2267.949724787099</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>-1.873951272498445</v>
       </c>
-      <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>10000</v>
       </c>
-      <c r="O8">
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
         <v>-4255.429090909092</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>-1.873189666981806</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>-5.401818181818157</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>-0.4895118190977332</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2">
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>45814</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>104288.44</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>632.96</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>105296.2590909091</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>665.5909090909091</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>1946.913340107684</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>15.45361669936558</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>103655.48</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>104630.6681818182</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>1940.820792030125</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>-0.5024617346551307</v>
       </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>10000</v>
       </c>
-      <c r="O9">
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
         <v>-1007.819090909077</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>-0.5176496920265259</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>-32.63090909090909</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>-2.111538659571431</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45815</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>105552.15</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>642.95</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>104988.4390909091</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>662.7581818181818</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1538.323631427818</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>16.55267580675823</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>104909.2</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>104325.6809090909</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>1533.646234804223</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.3804782861046034</v>
       </c>
-      <c r="L10" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="N10">
-        <v>-0.01358333564691705</v>
-      </c>
-      <c r="O10">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0262574916740369</v>
+      </c>
+      <c r="O10" t="n">
         <v>563.7109090908925</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>0.3664449388765327</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>-19.80818181818177</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>-1.196675513338717</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2">
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>45816</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>105734</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>650.59</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>104802.2772727273</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>659.5445454545454</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>1266.344547775999</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>14.95652590920538</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>105083.41</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>104142.7327272727</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>1267.000762115752</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.7424441254135068</v>
       </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O11">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
         <v>931.7227272727469</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>0.7357576805689039</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>-8.954545454545382</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>-0.5987049070689657</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>45817</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>110263.02</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>652.45</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>105227.12</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>656.3654545454546</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>2079.67493137754</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>11.82833662324225</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>109610.57</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>104570.7545454545</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>2082.256859541435</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>2.420362037205801</v>
       </c>
-      <c r="L12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O12">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
         <v>5035.900000000023</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>2.421484206026531</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>-3.915454545454509</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>-0.3310232596661803</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2">
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>45818</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>110274.39</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>667.49</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>105798.8390909091</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>655.5372727272728</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>2521.671129574443</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>10.51603260826956</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>109606.9</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>105143.3018181818</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>2520.366159655463</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>1.771011789187153</v>
       </c>
-      <c r="L13" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O13">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
         <v>4475.550909090904</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>1.774835289424199</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>11.9527272727272</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>1.136619456973522</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2">
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>45819</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>108645.12</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>673.89</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>106167.3154545454</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>657.3345454545455</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>2621.817966363686</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>11.85390767944198</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>107971.23</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>105509.9809090909</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>2618.917971237195</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.9397961745805936</v>
       </c>
-      <c r="L14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O14">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
         <v>2477.80454545455</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>0.9450711594943892</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>16.5554545454545</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>1.396624218203279</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2">
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>45820</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>105671.73</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>667.26</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>106169.9336363636</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>658.2118181818182</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>2621.256262208179</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>12.22752781078998</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>105004.47</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>105511.7218181818</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>2618.540667470417</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>-0.1937154631521668</v>
       </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O15">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
         <v>-498.2036363636144</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>-0.1900629265236057</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>9.048181818181774</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>0.7399845625537943</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="2">
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>45821</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>106066.59</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>651.45</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>106188.8972727273</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>657.3372727272728</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>2619.527804433837</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>12.34610958230114</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>105415.14</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>105531.56</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>2616.74322482739</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>-0.04449041804920608</v>
       </c>
-      <c r="L16" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O16">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
         <v>-122.3072727272665</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>-0.046690580080978</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>-5.887272727272716</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>-0.4768524601233463</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="2">
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>45822</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>105414.64</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>654.72</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>106192.3290909091</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>656.2436363636364</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>2618.382098630608</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>11.95557800587458</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>104759.92</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>105536.0854545455</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>2615.223188236011</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-0.2967874627438569</v>
       </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O17">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
         <v>-777.6890909091017</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>-0.2970113075993861</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>-1.523636363636342</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>-0.1274414639666671</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="2">
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>45823</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>105594.01</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>645.52</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>106273.8881818182</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>654.8018181818182</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>2580.845507553</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>12.22745011699673</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>104948.49</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>105619.0863636364</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>2577.044708010612</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-0.2602191423190522</v>
       </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O18">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
         <v>-679.8781818181742</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>-0.263432344101369</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>-9.281818181818267</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>-0.7590967939354835</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="2">
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>45824</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>106794.53</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>648.04</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>106754.42</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>653.3927272727274</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>2040.379256760884</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>12.0109567403346</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>106146.49</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>106101.0272727273</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>2033.328491543324</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>0.02235877157173761</v>
       </c>
-      <c r="L19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O19">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
         <v>40.11000000001513</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>0.01965811006317033</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>-5.352727272727407</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>-0.4456536967410885</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="2">
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>45825</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>104551.17</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>650.1799999999999</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>106778.3045454545</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>654.9581818181819</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>2009.936644018256</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>10.04240490936526</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>103900.99</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>106123.3463636364</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>2004.949638356406</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>-1.108435005608513</v>
       </c>
-      <c r="L20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O20">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
         <v>-2227.134545454552</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>-1.108062063589266</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>-4.778181818181906</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>-0.4758005538818605</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="2">
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>45826</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>104886.78</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>648.65</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>106717.8163636364</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>655.4763636363637</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>2059.917868383483</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>9.492850228174495</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>104238.13</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>106062.34</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>2055.168614211502</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>-0.8876206007553685</v>
       </c>
-      <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O21">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
         <v>-1831.036363636362</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>-0.8888880434214904</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>-6.826363636363681</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>-0.719105797761692</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="2">
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>45827</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>104658.59</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>644.61</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>106620.0518181818</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>654.9327272727273</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>2135.415600166973</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>9.960383618023412</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>104013.98</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>105965.1190909091</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>2130.039532879407</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>-0.9160107410173354</v>
       </c>
-      <c r="L22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O22">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
         <v>-1961.461818181822</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>-0.9185386760443501</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>-10.32272727272732</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>-1.03637848386163</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="2">
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>45828</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>103297.99</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>644.5700000000001</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>105986.8672727273</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>654.2163636363636</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>1973.695165161521</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>10.42914020687002</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>102653.42</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>105332.6509090909</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>1965.923361763912</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>-1.362835887298782</v>
       </c>
-      <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O23">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
         <v>-2688.877272727274</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>-1.362356923292774</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>-9.646363636363503</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>-0.9249433265849778</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="2">
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>45829</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>102120.01</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>641.58</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>105245.56</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>651.860909090909</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>1716.961236662087</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>10.05051287700867</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>101478.43</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>104593.6990909091</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>1709.614356593067</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>-1.822205738326404</v>
       </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O24">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
         <v>-3125.550000000003</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>-1.82039636845636</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>-10.28090909090895</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>-1.022923826546935</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="2">
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45830</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>100963.87</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>629.54</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>104547.2645454546</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>647.829090909091</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>1757.601717803987</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>9.188357257470914</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>100334.33</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>103899.4354545455</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>1751.008296064671</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>-2.036030019136917</v>
       </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25">
-        <v>9864.166643530829</v>
-      </c>
-      <c r="O25">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>compra_1_vende_2</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>10262.57491674037</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
         <v>-3583.394545454561</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>-2.038797817022953</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>-18.28909090909099</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>-1.99046362658792</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="2">
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45831</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>105333.93</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>616.21</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>104516.5554545454</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>643.1881818181818</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>1738.841120754719</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>11.08849567631458</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>104717.72</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>103873.3672727273</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>1734.973017900234</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>0.4866662008926185</v>
       </c>
-      <c r="L26" t="s">
-        <v>19</v>
-      </c>
-      <c r="M26">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="N26">
-        <v>0.0206371716097617</v>
-      </c>
-      <c r="O26">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0597339303039639</v>
+      </c>
+      <c r="O26" t="n">
         <v>817.3745454545569</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>0.470068562158104</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>-26.97818181818172</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>-2.432988441868455</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="2">
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>45832</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>106083</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>640.61</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>104518.0472727273</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>642.2027272727273</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>1740.310356615185</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>10.75757601963346</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>105442.39</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>103875.8445454545</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>1737.412311423889</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>0.9016543996177857</v>
       </c>
-      <c r="L27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O27">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="n">
         <v>1564.952727272728</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>0.8992377258022421</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="n">
         <v>-1.592727272727302</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>-0.1480563344214759</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="2">
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>45833</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>107340.58</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>643.21</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>104693.1327272727</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>641.1563636363636</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>1926.458143096304</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>9.947578874005318</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>106697.37</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>104051.9763636364</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>1924.166970121221</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>1.374825406236432</v>
       </c>
-      <c r="L28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O28">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
         <v>2647.447272727281</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>1.37425631707324</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="n">
         <v>2.053636363636429</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>0.2064458487484751</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="2">
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45834</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>106947.06</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>646.01</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>104816.1372727273</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>641.2009090909091</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>2030.137600287737</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>9.970144888160879</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>106301.05</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>104174.9363636364</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>2027.621020631194</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>1.048575456029637</v>
       </c>
-      <c r="L29" t="s">
-        <v>19</v>
-      </c>
-      <c r="M29">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O29">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
         <v>2130.922727272729</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>1.049644480734069</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="n">
         <v>4.809090909090855</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>0.4823491496900356</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="2">
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>45835</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>107047.59</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>642.3099999999999</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>104839.1427272727</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>640.6799999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>2056.066839658197</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>9.723733850739212</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>106405.28</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>104198.4627272727</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>2054.112719414844</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>1.074340882985194</v>
       </c>
-      <c r="L30" t="s">
-        <v>19</v>
-      </c>
-      <c r="M30">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O30">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
         <v>2208.447272727281</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>1.074112587261227</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="n">
         <v>1.629999999999995</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>0.1676310792768233</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="2">
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>45836</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>107296.79</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>645.24</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>105088.7445454545</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>640.2309090909091</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>2180.502202999915</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>9.347914692107592</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>106651.55</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>104448.5136363636</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>2177.961380655194</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>1.011513052161478</v>
       </c>
-      <c r="L31" t="s">
-        <v>19</v>
-      </c>
-      <c r="M31">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O31">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="n">
         <v>2208.045454545456</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>1.012631609134651</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>5.009090909090901</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>0.5358511576191487</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="2">
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>45837</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>108356.93</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>648.7</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>105404.2127272727</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>640.2354545454546</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>2389.381157317101</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>9.352428950424551</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>107708.23</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>104763.9772727273</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>2385.832284311252</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>1.234056872577978</v>
       </c>
-      <c r="L32" t="s">
-        <v>19</v>
-      </c>
-      <c r="M32">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O32">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
         <v>2952.717272727285</v>
       </c>
-      <c r="P32">
+      <c r="P32" t="n">
         <v>1.235766534646452</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" t="n">
         <v>8.464545454545487</v>
       </c>
-      <c r="R32">
+      <c r="R32" t="n">
         <v>0.9050638608873089</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="2">
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>45838</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>107146.5</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>655.24</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>105630.3863636364</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>641.2018181818182</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>2429.163131349074</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>10.34604544565932</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>106491.26</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>104989.1845454546</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>2424.56315914585</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>0.6195241600035722</v>
       </c>
-      <c r="L33" t="s">
-        <v>19</v>
-      </c>
-      <c r="M33">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O33">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="n">
         <v>1516.113636363632</v>
       </c>
-      <c r="P33">
+      <c r="P33" t="n">
         <v>0.6241300210750502</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="n">
         <v>14.03818181818178</v>
       </c>
-      <c r="R33">
+      <c r="R33" t="n">
         <v>1.356864503632303</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="2">
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>45839</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>105681.14</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>657.3200000000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>105847.0363636364</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>642.3609090909091</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>2303.356873653241</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>11.41962911354483</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>105023.82</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>105204.6754545454</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>2298.253012156693</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>-0.07869257805333529</v>
       </c>
-      <c r="L34" t="s">
-        <v>19</v>
-      </c>
-      <c r="M34">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O34">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
         <v>-165.8963636363624</v>
       </c>
-      <c r="P34">
+      <c r="P34" t="n">
         <v>-0.07202373437392805</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="n">
         <v>14.95909090909095</v>
       </c>
-      <c r="R34">
+      <c r="R34" t="n">
         <v>1.309945424702801</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="2">
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>45840</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>108849.6</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>646.4</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>106458.8172727273</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>642.7990909090909</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>2099.098784269567</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>11.47898815623226</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>108203.2</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>105816.0181818182</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>2093.197891002286</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>1.140447268957812</v>
       </c>
-      <c r="L35" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O35">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
         <v>2390.78272727273</v>
       </c>
-      <c r="P35">
+      <c r="P35" t="n">
         <v>1.138956749052981</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" t="n">
         <v>3.600909090909113</v>
       </c>
-      <c r="R35">
+      <c r="R35" t="n">
         <v>0.3136956883219781</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="2">
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>45841</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>109584.78</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>660.49</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>107242.5363636364</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>645.6127272727273</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>1299.345325748923</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>11.69510332652912</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>108924.29</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>106596.9236363636</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>1293.030388802027</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>1.799931682806491</v>
       </c>
-      <c r="L36" t="s">
-        <v>19</v>
-      </c>
-      <c r="M36">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O36">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
         <v>2342.243636363637</v>
       </c>
-      <c r="P36">
+      <c r="P36" t="n">
         <v>1.802633672471637</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" t="n">
         <v>14.87727272727273</v>
       </c>
-      <c r="R36">
+      <c r="R36" t="n">
         <v>1.272094167267867</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="2">
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>45842</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>107984.24</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>664.01</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>107483.4736363636</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>649.9581818181819</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>1146.811681360792</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>7.962292155130089</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>107320.23</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>106833.5154545454</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>1144.34737207167</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>0.425320630197668</v>
       </c>
-      <c r="L37" t="s">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O37">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
         <v>500.7663636363723</v>
       </c>
-      <c r="P37">
+      <c r="P37" t="n">
         <v>0.4366596292794728</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" t="n">
         <v>14.05181818181813</v>
       </c>
-      <c r="R37">
+      <c r="R37" t="n">
         <v>1.764795602578408</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="2">
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>45843</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>108198.12</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>653.59</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>107675.7572727273</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>651.1381818181818</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>1062.753987478723</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>7.378795048220668</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>107544.53</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>107024.6190909091</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>1061.314945484683</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>0.4898742934911607</v>
       </c>
-      <c r="L38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O38">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
         <v>522.3627272727172</v>
       </c>
-      <c r="P38">
+      <c r="P38" t="n">
         <v>0.4915180120960732</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" t="n">
         <v>2.451818181818226</v>
       </c>
-      <c r="R38">
+      <c r="R38" t="n">
         <v>0.3322789379289591</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="2">
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>45844</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>109203.84</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>656.1900000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>107845.1445454545</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>652.3181818181819</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>1148.979584956747</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>7.012949191577365</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>108547.65</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>107192.8263636364</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>1147.396826083075</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>1.180780359127062</v>
       </c>
-      <c r="L39" t="s">
-        <v>19</v>
-      </c>
-      <c r="M39">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O39">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
         <v>1358.69545454545</v>
       </c>
-      <c r="P39">
+      <c r="P39" t="n">
         <v>1.182523582084879</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" t="n">
         <v>3.871818181818185</v>
       </c>
-      <c r="R39">
+      <c r="R39" t="n">
         <v>0.5520955700731847</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>45845</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>108262.94</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>663.0700000000001</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>107964.77</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>653.8690909090909</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>1114.09718222429</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>7.35638831838817</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>107599.87</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>107310.9009090909</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>1112.755886216357</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>0.259687766641852</v>
       </c>
-      <c r="L40" t="s">
-        <v>19</v>
-      </c>
-      <c r="M40">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O40">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
         <v>298.1699999999983</v>
       </c>
-      <c r="P40">
+      <c r="P40" t="n">
         <v>0.2676337439474563</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" t="n">
         <v>9.200909090909136</v>
       </c>
-      <c r="R40">
+      <c r="R40" t="n">
         <v>1.250737276594055</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>45846</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>108922.98</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>661.3200000000001</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>108135.26</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>655.5972727272728</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>1103.147194394338</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>6.559079342269781</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>108261.66</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>107479.6627272727</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>1102.395762737627</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>0.709361645934929</v>
       </c>
-      <c r="L41" t="s">
-        <v>19</v>
-      </c>
-      <c r="M41">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O41">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="n">
         <v>787.7199999999866</v>
       </c>
-      <c r="P41">
+      <c r="P41" t="n">
         <v>0.714066086559255</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" t="n">
         <v>5.722727272727298</v>
       </c>
-      <c r="R41">
+      <c r="R41" t="n">
         <v>0.8724894111049033</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>45847</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>111233.99</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>660.4299999999999</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>108493.1872727273</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>656.9781818181818</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>1402.112753626436</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>5.703694974632172</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>110573.56</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>107836.2090909091</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>1401.456935424396</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>1.953217997570505</v>
       </c>
-      <c r="L42" t="s">
-        <v>19</v>
-      </c>
-      <c r="M42">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O42">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="n">
         <v>2740.802727272734</v>
       </c>
-      <c r="P42">
+      <c r="P42" t="n">
         <v>1.954766276951621</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" t="n">
         <v>3.451818181818112</v>
       </c>
-      <c r="R42">
+      <c r="R42" t="n">
         <v>0.6051898282026762</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>45848</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>116010</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>669.54</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>109188.9209090909</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>658.8727272727273</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>2661.176639212281</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>6.124622585775323</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>115340.46</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>108530.0481818182</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>2657.869051563001</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>2.562357921349391</v>
       </c>
-      <c r="L43" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O43">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="n">
         <v>6821.079090909101</v>
       </c>
-      <c r="P43">
+      <c r="P43" t="n">
         <v>2.56318163567232</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="n">
         <v>10.66727272727269</v>
       </c>
-      <c r="R43">
+      <c r="R43" t="n">
         <v>1.741702868687427</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>45849</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>117527.66</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>685.89</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>110132.6627272727</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>661.6590909090909</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>3555.060656219792</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>10.03216971003361</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>116841.77</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>109471.0036363636</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>3547.271802995294</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>2.077869070369109</v>
       </c>
-      <c r="L44" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O44">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="n">
         <v>7394.997272727298</v>
       </c>
-      <c r="P44">
+      <c r="P44" t="n">
         <v>2.080132517511145</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" t="n">
         <v>24.23090909090911</v>
       </c>
-      <c r="R44">
+      <c r="R44" t="n">
         <v>2.41532089181812</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>45850</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>117420</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>690.11</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>111199.8318181818</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>664.64</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>3835.967206254041</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>13.03582295062365</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>116729.89</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>110535.1918181818</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>3824.760123698788</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>1.619630507919931</v>
       </c>
-      <c r="L45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O45">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="n">
         <v>6220.168181818197</v>
       </c>
-      <c r="P45">
+      <c r="P45" t="n">
         <v>1.621538414529986</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" t="n">
         <v>25.47000000000003</v>
       </c>
-      <c r="R45">
+      <c r="R45" t="n">
         <v>1.953846726552964</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>45851</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>119086.64</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>685.5700000000001</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>112130.4718181818</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>668.2009090909091</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>4407.920131610422</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>12.90431435958201</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>118401.07</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>111462.2709090909</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>4396.220214237345</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>1.578355667543101</v>
       </c>
-      <c r="L46" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O46">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="n">
         <v>6956.168181818182</v>
       </c>
-      <c r="P46">
+      <c r="P46" t="n">
         <v>1.578106674831417</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" t="n">
         <v>17.36909090909091</v>
       </c>
-      <c r="R46">
+      <c r="R46" t="n">
         <v>1.345990993794538</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="2">
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>45852</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>119841.18</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>692.3200000000001</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>113062.8718181818</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>671.0945454545455</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>4875.541050371378</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>14.47543185099262</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>119148.86</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>112391.7772727273</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>4862.160256489057</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>1.389728509720484</v>
       </c>
-      <c r="L47" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O47">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="n">
         <v>6778.308181818167</v>
       </c>
-      <c r="P47">
+      <c r="P47" t="n">
         <v>1.390267892688926</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" t="n">
         <v>21.22545454545457</v>
       </c>
-      <c r="R47">
+      <c r="R47" t="n">
         <v>1.466308899378299</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="2">
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>45853</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>117758.09</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>688.4299999999999</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>113951.4036363637</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>673.3145454545455</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>4746.337548654284</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>15.13768830676372</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>117069.66</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>113278.0890909091</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>4732.092387505658</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.8012461715882706</v>
       </c>
-      <c r="L48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O48">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="n">
         <v>3806.686363636341</v>
       </c>
-      <c r="P48">
+      <c r="P48" t="n">
         <v>0.8020260515848986</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" t="n">
         <v>15.11545454545444</v>
       </c>
-      <c r="R48">
+      <c r="R48" t="n">
         <v>0.9985312313968477</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
-      <c r="A49" s="2">
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>45854</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>118630.43</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>689.99</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>114899.7954545455</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>676.6236363636364</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>4518.587156624003</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>14.352903032298</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>117940.44</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>114223.1718181818</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>4505.172636139066</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.8251111515681803</v>
       </c>
-      <c r="L49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O49">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="n">
         <v>3730.634545454537</v>
       </c>
-      <c r="P49">
+      <c r="P49" t="n">
         <v>0.825619693975722</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" t="n">
         <v>13.36636363636364</v>
       </c>
-      <c r="R49">
+      <c r="R49" t="n">
         <v>0.9312655151564549</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="2">
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>45855</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>119177.56</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>709.4</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>115806.4972727273</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>681.460909090909</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>4254.273966591943</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>15.68254918981327</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>118468.16</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>115125.0363636364</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>4240.604029232775</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>0.7883602461625004</v>
       </c>
-      <c r="L50" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50">
-        <v>10067.73514334066</v>
-      </c>
-      <c r="O50">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>vende_1_compra_2</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>10875.59885155615</v>
+      </c>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="n">
         <v>3371.062727272729</v>
       </c>
-      <c r="P50">
+      <c r="P50" t="n">
         <v>0.792394367110601</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" t="n">
         <v>27.93909090909096</v>
       </c>
-      <c r="R50">
+      <c r="R50" t="n">
         <v>1.78154014190748</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="2">
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>45856</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>117924.84</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>722.52</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>116684.8518181818</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>686.8654545454546</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>3465.31406410393</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>18.67015445229981</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>117202.32</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>115997.9863636364</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>3451.546683813676</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>0.348925785072369</v>
       </c>
-      <c r="L51" t="s">
-        <v>19</v>
-      </c>
-      <c r="M51">
-        <v>10276.32627731035</v>
-      </c>
-      <c r="N51">
-        <v>0.0207187744810375</v>
-      </c>
-      <c r="O51">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>11556.66295472836</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.06262313574344081</v>
+      </c>
+      <c r="O51" t="n">
         <v>1239.988181818189</v>
       </c>
-      <c r="P51">
+      <c r="P51" t="n">
         <v>0.3578285139182121</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" t="n">
         <v>35.65454545454543</v>
       </c>
-      <c r="R51">
+      <c r="R51" t="n">
         <v>1.909708114393958</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="2">
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>45857</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>117840</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>730.22</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>117495.49</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>693.1290909090909</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>2322.568663114208</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>20.69112972002527</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>117109.78</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>116802.3609090909</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>2310.841450370136</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>0.1330333982281031</v>
       </c>
-      <c r="L52" t="s">
-        <v>19</v>
-      </c>
-      <c r="M52">
-        <v>10276.32627731035</v>
-      </c>
-      <c r="O52">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>neutro</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>11556.66295472836</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="n">
         <v>344.5100000000093</v>
       </c>
-      <c r="P52">
+      <c r="P52" t="n">
         <v>0.1483314596770949</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" t="n">
         <v>37.09090909090912</v>
       </c>
-      <c r="R52">
+      <c r="R52" t="n">
         <v>1.792599514516205</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>